--- a/数据库信息统计.xlsx
+++ b/数据库信息统计.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
   <si>
     <t>数据库信息</t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t>SQLSERVER2008</t>
+  </si>
+  <si>
+    <t>yjs_v</t>
+  </si>
+  <si>
+    <t>@.2019yjs_v~</t>
   </si>
 </sst>
 </file>
@@ -359,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -414,7 +420,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,24 +456,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,17 +473,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,37 +510,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -518,18 +518,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,13 +534,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -582,187 +588,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,6 +849,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -877,36 +892,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -925,6 +911,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -933,10 +939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -945,16 +951,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,128 +969,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1153,9 +1156,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1485,718 +1485,722 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="24.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="17.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="24.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="17.125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="53" customHeight="1" spans="1:12">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="26"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="20.25" spans="1:12">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="20.25" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1521</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="33" spans="1:12">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1521</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="33" spans="1:12">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>1433</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:12">
-      <c r="A6" s="10">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:12">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>1433</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:12">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>1521</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:12">
-      <c r="A9" s="14">
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:12">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>1521</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:12">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:12">
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:12">
-      <c r="A11" s="18">
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:12">
+      <c r="A11" s="17">
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>1521</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:12">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:12">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:12">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:12">
+      <c r="A13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:12">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>8</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18" t="s">
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:12">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>9</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:12">
-      <c r="A16" s="20">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:12">
+      <c r="A16" s="19">
         <v>10</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <v>1433</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:12">
-      <c r="A17" s="21">
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:12">
+      <c r="A17" s="20">
         <v>11</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <v>1521</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:12">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="20" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:12">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:12">
-      <c r="A19" s="20">
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:12">
+      <c r="A19" s="19">
         <v>12</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="19">
         <v>1433</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:12">
-      <c r="A20" s="20">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:12">
+      <c r="A20" s="19">
         <v>13</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="19">
         <v>1433</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:12">
-      <c r="A21" s="20">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:12">
+      <c r="A21" s="19">
         <v>14</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <v>1521</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:12">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>15</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <v>3306</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:12">
-      <c r="A23" s="23">
+      <c r="A23" s="22">
         <v>16</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>1433</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>17</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="24" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>1433</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="I24" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:12">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>18</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <v>1433</v>
       </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
+      <c r="G25" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L25">

--- a/数据库信息统计.xlsx
+++ b/数据库信息统计.xlsx
@@ -365,10 +365,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -409,6 +409,89 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -419,73 +502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -494,11 +510,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,25 +541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,20 +554,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -588,97 +588,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,85 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,6 +835,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -851,24 +875,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,15 +895,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,11 +916,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,10 +939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,133 +951,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1484,8 +1484,8 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
